--- a/biology/Microbiologie/Parakahliellidae/Parakahliellidae.xlsx
+++ b/biology/Microbiologie/Parakahliellidae/Parakahliellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Parakahliellidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Stichotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Parakahliella, composé du préfixe para-, « à côté de », et du suffixe -kahliella, par allusion au genre Kahliella Corliss, 1960.
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Parakahliella macrostoma est un cilié terrestre[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Parakahliella macrostoma est un cilié terrestre.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 mars 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 mars 2023) :
 Anatoliocirrus Özbek &amp; Foissner, in Foissner, Agatha &amp; Berger, 2002
 Fragmocirrus Foissner, 2000
 Neogeneia Eigner, 1995</t>
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Parakahliellidae Eigner, 1997[3].
-Selon World Register of Marine Species                               (15 mars 2023)[3] cette famille est invalide et synonyme de celle des Kahliellidae Tuffrau, 1979.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Parakahliellidae Eigner, 1997.
+Selon World Register of Marine Species                               (15 mars 2023) cette famille est invalide et synonyme de celle des Kahliellidae Tuffrau, 1979.
 Le nom valide du genre type est Parakahliella Berger, Foissner &amp; Adam, 1985.
 </t>
         </is>
